--- a/z_matrix.xlsx
+++ b/z_matrix.xlsx
@@ -1881,7 +1881,7 @@
         <v>0.419708698309228</v>
       </c>
       <c r="V7" t="n">
-        <v>574.7718234890743</v>
+        <v>574.7718234890744</v>
       </c>
       <c r="W7" t="n">
         <v>32.1770740990906</v>
@@ -1920,7 +1920,7 @@
         <v>24.61564104796291</v>
       </c>
       <c r="AI7" t="n">
-        <v>46.04892511613761</v>
+        <v>46.0489251161376</v>
       </c>
       <c r="AJ7" t="n">
         <v>0.3004455874494262</v>
@@ -1935,7 +1935,7 @@
         <v>4145.15797120595</v>
       </c>
       <c r="AN7" t="n">
-        <v>261.9753309026727</v>
+        <v>261.9753309026728</v>
       </c>
       <c r="AO7" t="n">
         <v>487.4272547006261</v>
@@ -3702,7 +3702,7 @@
         <v>12.92219609333996</v>
       </c>
       <c r="E16" t="n">
-        <v>6.490512580692555</v>
+        <v>6.490512580692554</v>
       </c>
       <c r="F16" t="n">
         <v>124.2524060365424</v>
@@ -3738,7 +3738,7 @@
         <v>54.9985177600831</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6332280343071476</v>
+        <v>0.6332280343071477</v>
       </c>
       <c r="R16" t="n">
         <v>2.875241430486079</v>
@@ -3756,13 +3756,13 @@
         <v>3.004763452722953</v>
       </c>
       <c r="W16" t="n">
-        <v>10.82180411977403</v>
+        <v>10.82180411977404</v>
       </c>
       <c r="X16" t="n">
         <v>1.254208091553502</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.148607375906492</v>
+        <v>2.148607375906493</v>
       </c>
       <c r="Z16" t="n">
         <v>6.12640963837117</v>
@@ -3801,7 +3801,7 @@
         <v>17.80207403153572</v>
       </c>
       <c r="AL16" t="n">
-        <v>3.248008900108624</v>
+        <v>3.248008900108625</v>
       </c>
       <c r="AM16" t="n">
         <v>167.0971032867247</v>
@@ -3813,13 +3813,13 @@
         <v>60.24207549095993</v>
       </c>
       <c r="AP16" t="n">
-        <v>464.9280051127495</v>
+        <v>464.9280051127496</v>
       </c>
       <c r="AQ16" t="n">
         <v>219.0135543780145</v>
       </c>
       <c r="AR16" t="n">
-        <v>9.145442955484887</v>
+        <v>9.14544295548489</v>
       </c>
       <c r="AS16" t="n">
         <v>210.2649040846815</v>
@@ -3846,7 +3846,7 @@
         <v>1.25817919987665</v>
       </c>
       <c r="BA16" t="n">
-        <v>818.2854638915418</v>
+        <v>818.2854638915419</v>
       </c>
       <c r="BB16" t="n">
         <v>37.31552273031208</v>
@@ -3855,7 +3855,7 @@
         <v>11.55820630171909</v>
       </c>
       <c r="BD16" t="n">
-        <v>184.3089201395002</v>
+        <v>184.3089201395001</v>
       </c>
       <c r="BE16" t="n">
         <v>33.96698030421198</v>
@@ -3867,10 +3867,10 @@
         <v>157.0044291843088</v>
       </c>
       <c r="BH16" t="n">
-        <v>222.1313189377658</v>
+        <v>222.1313189377657</v>
       </c>
       <c r="BI16" t="n">
-        <v>592.8587188631891</v>
+        <v>592.8587188631892</v>
       </c>
       <c r="BJ16" t="n">
         <v>774.0444246895661</v>
@@ -3879,7 +3879,7 @@
         <v>1.860289907787171</v>
       </c>
       <c r="BL16" t="n">
-        <v>53.04279529763743</v>
+        <v>53.04279529763741</v>
       </c>
       <c r="BM16" t="n">
         <v>65.54005310800373</v>
@@ -5565,7 +5565,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>697.2104079995477</v>
+        <v>697.2104079995476</v>
       </c>
       <c r="C25" t="n">
         <v>111.8692763116314</v>
@@ -5580,7 +5580,7 @@
         <v>82.86276782578528</v>
       </c>
       <c r="G25" t="n">
-        <v>44.40142559107913</v>
+        <v>44.40142559107912</v>
       </c>
       <c r="H25" t="n">
         <v>14.55501532159566</v>
@@ -5592,7 +5592,7 @@
         <v>12.03024662941527</v>
       </c>
       <c r="K25" t="n">
-        <v>249.1842028344841</v>
+        <v>249.1842028344842</v>
       </c>
       <c r="L25" t="n">
         <v>41.24053473325898</v>
@@ -5625,13 +5625,13 @@
         <v>18.869301967481</v>
       </c>
       <c r="V25" t="n">
-        <v>313.1460978359668</v>
+        <v>313.1460978359667</v>
       </c>
       <c r="W25" t="n">
         <v>344.7952884792841</v>
       </c>
       <c r="X25" t="n">
-        <v>927.2264469190516</v>
+        <v>927.2264469190515</v>
       </c>
       <c r="Y25" t="n">
         <v>48.30075462266178</v>
@@ -5640,7 +5640,7 @@
         <v>118.7106867588241</v>
       </c>
       <c r="AA25" t="n">
-        <v>92.34713810086143</v>
+        <v>92.34713810086141</v>
       </c>
       <c r="AB25" t="n">
         <v>33.21014088237207</v>
@@ -5655,7 +5655,7 @@
         <v>48.39522170932203</v>
       </c>
       <c r="AF25" t="n">
-        <v>32.76384767881132</v>
+        <v>32.76384767881133</v>
       </c>
       <c r="AG25" t="n">
         <v>62.24705239516926</v>
@@ -5670,7 +5670,7 @@
         <v>17.59377669176406</v>
       </c>
       <c r="AK25" t="n">
-        <v>44.88201627429368</v>
+        <v>44.88201627429369</v>
       </c>
       <c r="AL25" t="n">
         <v>21.22333367861655</v>
@@ -5679,40 +5679,40 @@
         <v>27.55630072298556</v>
       </c>
       <c r="AN25" t="n">
-        <v>43.59618427363671</v>
+        <v>43.59618427363669</v>
       </c>
       <c r="AO25" t="n">
-        <v>202.0452583940812</v>
+        <v>202.0452583940813</v>
       </c>
       <c r="AP25" t="n">
         <v>1721.218965507417</v>
       </c>
       <c r="AQ25" t="n">
-        <v>199.2579636820571</v>
+        <v>199.2579636820572</v>
       </c>
       <c r="AR25" t="n">
-        <v>9.430564134114526</v>
+        <v>9.430564134114528</v>
       </c>
       <c r="AS25" t="n">
         <v>1.742329350045794</v>
       </c>
       <c r="AT25" t="n">
-        <v>84.50507597267243</v>
+        <v>84.50507597267244</v>
       </c>
       <c r="AU25" t="n">
         <v>56.77968120108106</v>
       </c>
       <c r="AV25" t="n">
-        <v>71.66707644581055</v>
+        <v>71.66707644581054</v>
       </c>
       <c r="AW25" t="n">
-        <v>32.42779989417989</v>
+        <v>32.4277998941799</v>
       </c>
       <c r="AX25" t="n">
         <v>35.78533803188319</v>
       </c>
       <c r="AY25" t="n">
-        <v>99.43152721596017</v>
+        <v>99.43152721596019</v>
       </c>
       <c r="AZ25" t="n">
         <v>16.27797458185835</v>
@@ -5730,7 +5730,7 @@
         <v>81.87143303808827</v>
       </c>
       <c r="BE25" t="n">
-        <v>144.8977663761112</v>
+        <v>144.8977663761111</v>
       </c>
       <c r="BF25" t="n">
         <v>74.17891367347936</v>
@@ -5754,13 +5754,13 @@
         <v>83.88886666613217</v>
       </c>
       <c r="BM25" t="n">
-        <v>614.0339052813318</v>
+        <v>614.0339052813317</v>
       </c>
       <c r="BN25" t="n">
         <v>134.8157170406806</v>
       </c>
       <c r="BO25" t="n">
-        <v>644.42320804266</v>
+        <v>644.4232080426602</v>
       </c>
       <c r="BP25" t="n">
         <v>0</v>
